--- a/experiments/droptc/sentence/DroPTC-all-mpnet-base-v2-sentence/unfreeze/ce-uniform/90995999/prediction.xlsx
+++ b/experiments/droptc/sentence/DroPTC-all-mpnet-base-v2-sentence/unfreeze/ce-uniform/90995999/prediction.xlsx
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.993341863155365</v>
+        <v>0.5721415877342224</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9933545589447021</v>
+        <v>0.5721009969711304</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9903059005737305</v>
+        <v>0.5721305012702942</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8936169147491455</v>
+        <v>0.2770251035690308</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9933385252952576</v>
+        <v>0.5721361637115479</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9933266639709473</v>
+        <v>0.5721800327301025</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9933053851127625</v>
+        <v>0.5721941590309143</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9933250546455383</v>
+        <v>0.5720916390419006</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9933053851127625</v>
+        <v>0.5721941590309143</v>
       </c>
     </row>
     <row r="11">
@@ -735,14 +735,14 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9929578304290771</v>
+        <v>0.244568943977356</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9932907819747925</v>
+        <v>0.5722134709358215</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9741522073745728</v>
+        <v>0.3586443662643433</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9933324456214905</v>
+        <v>0.5721390247344971</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9933271408081055</v>
+        <v>0.5721865296363831</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.993346095085144</v>
+        <v>0.572121798992157</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9933398365974426</v>
+        <v>0.5721641778945923</v>
       </c>
     </row>
     <row r="18">
@@ -938,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7215601801872253</v>
+        <v>0.2634654641151428</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9933260679244995</v>
+        <v>0.5721813440322876</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9933062195777893</v>
+        <v>0.5722059607505798</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9933382272720337</v>
+        <v>0.5721781849861145</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.993312656879425</v>
+        <v>0.5721783041954041</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9933131337165833</v>
+        <v>0.5721756815910339</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9933210015296936</v>
+        <v>0.572201132774353</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.893028736114502</v>
+        <v>0.2754124104976654</v>
       </c>
     </row>
     <row r="26">
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7247231602668762</v>
+        <v>0.2637310028076172</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9933218359947205</v>
+        <v>0.5721710920333862</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9933545589447021</v>
+        <v>0.5721009969711304</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9933472871780396</v>
+        <v>0.5721229314804077</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9933358430862427</v>
+        <v>0.572145938873291</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9933416247367859</v>
+        <v>0.5720951557159424</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9933078289031982</v>
+        <v>0.5722025036811829</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9652368426322937</v>
+        <v>0.389363557100296</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9741454720497131</v>
+        <v>0.3584083318710327</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9737884402275085</v>
+        <v>0.3580553531646729</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9933226704597473</v>
+        <v>0.5721793174743652</v>
       </c>
     </row>
     <row r="37">
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9739820957183838</v>
+        <v>0.3584151864051819</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9932937622070312</v>
+        <v>0.5722189545631409</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9686452150344849</v>
+        <v>0.3533237874507904</v>
       </c>
     </row>
     <row r="40">
@@ -1547,14 +1547,14 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9909021258354187</v>
+        <v>0.2325601428747177</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9933252334594727</v>
+        <v>0.572191596031189</v>
       </c>
     </row>
     <row r="42">
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9738073348999023</v>
+        <v>0.3102830648422241</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9651327729225159</v>
+        <v>0.3882913589477539</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9738991260528564</v>
+        <v>0.3558374643325806</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9651896357536316</v>
+        <v>0.3881541788578033</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9643924832344055</v>
+        <v>0.3890668451786041</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8931647539138794</v>
+        <v>0.2742395997047424</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9655090570449829</v>
+        <v>0.3870471715927124</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9932931661605835</v>
+        <v>0.5722110271453857</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9650712609291077</v>
+        <v>0.3869154155254364</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9640402793884277</v>
+        <v>0.3814637959003448</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9933632612228394</v>
+        <v>0.5720258355140686</v>
       </c>
     </row>
     <row r="53">
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9650712609291077</v>
+        <v>0.3869154155254364</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9648913145065308</v>
+        <v>0.3864419758319855</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9933244585990906</v>
+        <v>0.5721943378448486</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9933087825775146</v>
+        <v>0.5722126960754395</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9932973980903625</v>
+        <v>0.5722193717956543</v>
       </c>
     </row>
     <row r="58">
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9738907814025879</v>
+        <v>0.3584437668323517</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9932994842529297</v>
+        <v>0.572185754776001</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9933174848556519</v>
+        <v>0.572172999382019</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9933306574821472</v>
+        <v>0.5721704363822937</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9933164119720459</v>
+        <v>0.5722038745880127</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9738299250602722</v>
+        <v>0.3565508127212524</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.974027156829834</v>
+        <v>0.2961143553256989</v>
       </c>
     </row>
     <row r="65">
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9737809896469116</v>
+        <v>0.3582451343536377</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9737809896469116</v>
+        <v>0.3582451343536377</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9738865494728088</v>
+        <v>0.3565381467342377</v>
       </c>
     </row>
     <row r="68">
@@ -2338,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9737809896469116</v>
+        <v>0.3582451343536377</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9155357480049133</v>
+        <v>0.3605568110942841</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9933357238769531</v>
+        <v>0.5721567273139954</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9740338921546936</v>
+        <v>0.357976883649826</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9933630228042603</v>
+        <v>0.5718775987625122</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.974007248878479</v>
+        <v>0.3582880198955536</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9933211207389832</v>
+        <v>0.5721893906593323</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9933405518531799</v>
+        <v>0.5721641778945923</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.974007248878479</v>
+        <v>0.3582880198955536</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9933506846427917</v>
+        <v>0.5721043348312378</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.974007248878479</v>
+        <v>0.3582880198955536</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9933205842971802</v>
+        <v>0.5722018480300903</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9739770293235779</v>
+        <v>0.3584461510181427</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9933795928955078</v>
+        <v>0.5720934271812439</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9739770293235779</v>
+        <v>0.3584461510181427</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9933699369430542</v>
+        <v>0.5720562934875488</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9933699369430542</v>
+        <v>0.5720562934875488</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.993299126625061</v>
+        <v>0.5722218155860901</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9740104079246521</v>
+        <v>0.3587075769901276</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9933714866638184</v>
+        <v>0.5720348358154297</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9739896059036255</v>
+        <v>0.3584423065185547</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9933625459671021</v>
+        <v>0.5720781087875366</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9933193922042847</v>
+        <v>0.5722050070762634</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.993314802646637</v>
+        <v>0.5722034573554993</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9933173656463623</v>
+        <v>0.5722073912620544</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9933163523674011</v>
+        <v>0.5722062587738037</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9933199882507324</v>
+        <v>0.5722003579139709</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9933196306228638</v>
+        <v>0.5721991658210754</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9933070540428162</v>
+        <v>0.5722160339355469</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.7402014136314392</v>
+        <v>0.2447367310523987</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9933245778083801</v>
+        <v>0.5722090601921082</v>
       </c>
     </row>
     <row r="99">
@@ -3199,14 +3199,14 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9731561541557312</v>
+        <v>0.5720794796943665</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9933292865753174</v>
+        <v>0.5721350908279419</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9933331608772278</v>
+        <v>0.5721712112426758</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.8936478495597839</v>
+        <v>0.2764477431774139</v>
       </c>
     </row>
     <row r="103">
@@ -3311,14 +3311,14 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9658734202384949</v>
+        <v>0.5720922946929932</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9933557510375977</v>
+        <v>0.5721181631088257</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9157872796058655</v>
+        <v>0.3610059320926666</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9933474659919739</v>
+        <v>0.5721374154090881</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9653719067573547</v>
+        <v>0.3877874910831451</v>
       </c>
     </row>
     <row r="108">
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.8933425545692444</v>
+        <v>0.2759000957012177</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9933131337165833</v>
+        <v>0.5721874833106995</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9933545589447021</v>
+        <v>0.5721009969711304</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9652450680732727</v>
+        <v>0.3892844319343567</v>
       </c>
     </row>
     <row r="112">
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9653416872024536</v>
+        <v>0.3884357213973999</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9741576313972473</v>
+        <v>0.3589071035385132</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9933085441589355</v>
+        <v>0.5722160339355469</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9727519154548645</v>
+        <v>0.3593205213546753</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9933366775512695</v>
+        <v>0.5720687508583069</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.993361234664917</v>
+        <v>0.5720629096031189</v>
       </c>
     </row>
     <row r="118">
@@ -3731,14 +3731,14 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.800991952419281</v>
+        <v>0.3552277386188507</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.993317723274231</v>
+        <v>0.5721825361251831</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9933545589447021</v>
+        <v>0.5721009969711304</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9156469702720642</v>
+        <v>0.3609311878681183</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9932832717895508</v>
+        <v>0.5722079277038574</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9156469702720642</v>
+        <v>0.3609311878681183</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9932832717895508</v>
+        <v>0.5722079277038574</v>
       </c>
     </row>
     <row r="125">
@@ -3934,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9156469702720642</v>
+        <v>0.3609311878681183</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9932954907417297</v>
+        <v>0.5722159743309021</v>
       </c>
     </row>
     <row r="127">
@@ -3983,14 +3983,14 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.8907312154769897</v>
+        <v>0.5719595551490784</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9933545589447021</v>
+        <v>0.5721009969711304</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9933358430862427</v>
+        <v>0.572196364402771</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9933484196662903</v>
+        <v>0.5721379518508911</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9933326840400696</v>
+        <v>0.5721405744552612</v>
       </c>
     </row>
     <row r="132">
@@ -4123,14 +4123,14 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.893811821937561</v>
+        <v>0.5517938733100891</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9933255910873413</v>
+        <v>0.5721560120582581</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9933236241340637</v>
+        <v>0.5721859931945801</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9933299422264099</v>
+        <v>0.5721510648727417</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9931243062019348</v>
+        <v>0.5720656514167786</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9933195114135742</v>
+        <v>0.5721644163131714</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9933342933654785</v>
+        <v>0.5721141695976257</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9933352470397949</v>
+        <v>0.572110116481781</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9933376312255859</v>
+        <v>0.5720788836479187</v>
       </c>
     </row>
     <row r="141">
@@ -4375,14 +4375,14 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.8879321813583374</v>
+        <v>0.5664923191070557</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9933545589447021</v>
+        <v>0.5721009969711304</v>
       </c>
     </row>
     <row r="143">
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9737489819526672</v>
+        <v>0.3578330874443054</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9933053851127625</v>
+        <v>0.572187602519989</v>
       </c>
     </row>
     <row r="145">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9737489819526672</v>
+        <v>0.3578330874443054</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9933510422706604</v>
+        <v>0.5720588564872742</v>
       </c>
     </row>
     <row r="147">
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9155357480049133</v>
+        <v>0.3605568110942841</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9933383464813232</v>
+        <v>0.5721346139907837</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9739885926246643</v>
+        <v>0.3585741221904755</v>
       </c>
     </row>
     <row r="150">
@@ -4634,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9151617884635925</v>
+        <v>0.3604938387870789</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9933545589447021</v>
+        <v>0.5721009969711304</v>
       </c>
     </row>
     <row r="152">
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.8932868242263794</v>
+        <v>0.2711816728115082</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.993311882019043</v>
+        <v>0.5722110271453857</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.8935855031013489</v>
+        <v>0.2757951319217682</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.993299126625061</v>
+        <v>0.5722221732139587</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.8935046195983887</v>
+        <v>0.2759795486927032</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9932940006256104</v>
+        <v>0.5722167491912842</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.8934656977653503</v>
+        <v>0.2759232819080353</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.993304431438446</v>
+        <v>0.5722165703773499</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9739956855773926</v>
+        <v>0.3590834736824036</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9933223128318787</v>
+        <v>0.5721516609191895</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.993291974067688</v>
+        <v>0.572040855884552</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9933178424835205</v>
+        <v>0.5721612572669983</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9739127159118652</v>
+        <v>0.3581213057041168</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9932936429977417</v>
+        <v>0.5722276568412781</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9927753210067749</v>
+        <v>0.5720877051353455</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9652442932128906</v>
+        <v>0.3865668773651123</v>
       </c>
     </row>
     <row r="168">
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9636906385421753</v>
+        <v>0.3584465980529785</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9933545589447021</v>
+        <v>0.5721009969711304</v>
       </c>
     </row>
     <row r="170">
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9652442932128906</v>
+        <v>0.3865668773651123</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9675555825233459</v>
+        <v>0.3583401441574097</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9933545589447021</v>
+        <v>0.5721009969711304</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.993340790271759</v>
+        <v>0.572141706943512</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.993331253528595</v>
+        <v>0.5721219182014465</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.993340790271759</v>
+        <v>0.572141706943512</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.993340790271759</v>
+        <v>0.572141706943512</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.993331253528595</v>
+        <v>0.5721219182014465</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9933316111564636</v>
+        <v>0.572188138961792</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9933760762214661</v>
+        <v>0.5718874931335449</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.993316113948822</v>
+        <v>0.5721482634544373</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.99332594871521</v>
+        <v>0.5722030401229858</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9933202266693115</v>
+        <v>0.5721742510795593</v>
       </c>
     </row>
     <row r="183">
@@ -5558,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9154092669487</v>
+        <v>0.361581414937973</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9933087825775146</v>
+        <v>0.572210967540741</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.993316113948822</v>
+        <v>0.5722262859344482</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9933121800422668</v>
+        <v>0.5722097158432007</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9933350086212158</v>
+        <v>0.5721746683120728</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9933320879936218</v>
+        <v>0.57216477394104</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.99332195520401</v>
+        <v>0.5722072720527649</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.993312656879425</v>
+        <v>0.5722141265869141</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.7376347780227661</v>
+        <v>0.2451674938201904</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9933172464370728</v>
+        <v>0.5721798539161682</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9933345317840576</v>
+        <v>0.5721515417098999</v>
       </c>
     </row>
     <row r="194">
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9155592322349548</v>
+        <v>0.3608807921409607</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9656049609184265</v>
+        <v>0.3878254890441895</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9933110475540161</v>
+        <v>0.5722172260284424</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9933090209960938</v>
+        <v>0.5721995830535889</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9932994842529297</v>
+        <v>0.5721989274024963</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.99332594871521</v>
+        <v>0.5721908807754517</v>
       </c>
     </row>
     <row r="200">
@@ -6034,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9154272079467773</v>
+        <v>0.3574603497982025</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9933085441589355</v>
+        <v>0.5721852779388428</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9933225512504578</v>
+        <v>0.5722083449363708</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9933372735977173</v>
+        <v>0.5721544623374939</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9652597308158875</v>
+        <v>0.3860412240028381</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9932814836502075</v>
+        <v>0.5722038745880127</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9933499693870544</v>
+        <v>0.5721362233161926</v>
       </c>
     </row>
     <row r="207">
@@ -6230,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.7379348278045654</v>
+        <v>0.243986576795578</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9933690428733826</v>
+        <v>0.571840226650238</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.7260366678237915</v>
+        <v>0.2648003697395325</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.993337869644165</v>
+        <v>0.572168231010437</v>
       </c>
     </row>
   </sheetData>
